--- a/documentos/Funções.xlsx
+++ b/documentos/Funções.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/bruno_lima_sptech_school/Documents/sprint2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/bruno_lima_sptech_school/Documents/git/sprint2/documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8659409E-37D0-4338-ACBC-336AE3C05FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="8_{8659409E-37D0-4338-ACBC-336AE3C05FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{385FEA08-D35E-4EFC-B63A-433FABE21D35}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9DE8B298-4CA4-4F6E-BABB-8895AAA8D650}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9DE8B298-4CA4-4F6E-BABB-8895AAA8D650}"/>
   </bookViews>
   <sheets>
     <sheet name="Funções" sheetId="1" r:id="rId1"/>
+    <sheet name="S 2.2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>Anízio</t>
   </si>
@@ -87,13 +88,34 @@
   </si>
   <si>
     <t>1.8</t>
+  </si>
+  <si>
+    <t>Scrum Master</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Discussão</t>
+  </si>
+  <si>
+    <t>Sprint 2.2</t>
+  </si>
+  <si>
+    <t>Entrega</t>
+  </si>
+  <si>
+    <t>30/03 - 05/04</t>
+  </si>
+  <si>
+    <t>Info</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,8 +130,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,8 +158,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -131,11 +185,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -145,6 +242,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -503,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE64FC0D-F22B-430B-82B2-CEBD5E4FC459}">
   <dimension ref="B4:F10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -637,4 +747,162 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1648B562-97D0-4A45-9310-DDFCBB0F5669}">
+  <dimension ref="B1:I14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.08984375" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="8">
+        <v>45015</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="8">
+        <v>45016</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="8">
+        <v>45019</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="8">
+        <v>45020</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="8">
+        <v>45021</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="I14" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/documentos/Funções.xlsx
+++ b/documentos/Funções.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/bruno_lima_sptech_school/Documents/git/sprint2/documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="8_{8659409E-37D0-4338-ACBC-336AE3C05FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{385FEA08-D35E-4EFC-B63A-433FABE21D35}"/>
+  <xr:revisionPtr revIDLastSave="184" documentId="8_{8659409E-37D0-4338-ACBC-336AE3C05FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B32F02F0-29B8-4C92-AA46-7394F28CD0B1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9DE8B298-4CA4-4F6E-BABB-8895AAA8D650}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>Anízio</t>
   </si>
@@ -109,6 +109,30 @@
   </si>
   <si>
     <t>Info</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Distribuição das tarefas;                                                         Alinhamento sobre criatividade e produtividade.</t>
+  </si>
+  <si>
+    <t>Protótipo e Código - Sessão Início</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protótipo e Código - Sessão Calculadora </t>
+  </si>
+  <si>
+    <t>Protótipo e Código - Sessões Cliente</t>
+  </si>
+  <si>
+    <t>Protótipo e Código - Sessão Login/Cadastro/Rec Senha</t>
+  </si>
+  <si>
+    <t>Protótipo e Código - Sessão Fale Conosco</t>
+  </si>
+  <si>
+    <t>Protótipo e Código - Sessão Sobre Nós</t>
   </si>
 </sst>
 </file>
@@ -145,7 +169,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,6 +197,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
@@ -232,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -247,15 +277,24 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -299,6 +338,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -753,15 +796,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1648B562-97D0-4A45-9310-DDFCBB0F5669}">
   <dimension ref="B1:I14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="15.08984375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" customWidth="1"/>
+    <col min="5" max="5" width="10.90625" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" customWidth="1"/>
+    <col min="7" max="7" width="11.36328125" customWidth="1"/>
+    <col min="8" max="8" width="11.26953125" customWidth="1"/>
+    <col min="9" max="9" width="32.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -824,17 +872,31 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:9" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="8">
         <v>45015</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="C8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="8">
@@ -884,16 +946,28 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:9" ht="73" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="C13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="I13" s="9" t="s">
         <v>7</v>
       </c>

--- a/documentos/Funções.xlsx
+++ b/documentos/Funções.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/bruno_lima_sptech_school/Documents/git/sprint2/documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="184" documentId="8_{8659409E-37D0-4338-ACBC-336AE3C05FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B32F02F0-29B8-4C92-AA46-7394F28CD0B1}"/>
+  <xr:revisionPtr revIDLastSave="206" documentId="8_{8659409E-37D0-4338-ACBC-336AE3C05FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5D6F7E6-BF8D-4CF2-A928-973F079746A2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9DE8B298-4CA4-4F6E-BABB-8895AAA8D650}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>Anízio</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Protótipo e Código - Sessão Sobre Nós</t>
+  </si>
+  <si>
+    <t>Pontuação</t>
   </si>
 </sst>
 </file>
@@ -794,10 +797,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1648B562-97D0-4A45-9310-DDFCBB0F5669}">
-  <dimension ref="B1:I14"/>
+  <dimension ref="B1:J16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -812,8 +815,8 @@
     <col min="9" max="9" width="32.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
@@ -821,7 +824,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
@@ -829,7 +832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="8" t="s">
         <v>17</v>
       </c>
@@ -837,7 +840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
@@ -845,8 +848,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="2:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
@@ -872,7 +875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="8">
         <v>45015</v>
       </c>
@@ -898,7 +901,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="8">
         <v>45016</v>
       </c>
@@ -910,7 +913,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="8">
         <v>45019</v>
       </c>
@@ -922,7 +925,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="8">
         <v>45020</v>
       </c>
@@ -934,7 +937,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="8">
         <v>45021</v>
       </c>
@@ -946,7 +949,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="2:9" ht="73" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:10" ht="73" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
@@ -972,8 +975,43 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="J15">
+        <f>SUM(C15:H16)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/documentos/Funções.xlsx
+++ b/documentos/Funções.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/bruno_lima_sptech_school/Documents/git/sprint2/documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="206" documentId="8_{8659409E-37D0-4338-ACBC-336AE3C05FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5D6F7E6-BF8D-4CF2-A928-973F079746A2}"/>
+  <xr:revisionPtr revIDLastSave="304" documentId="8_{8659409E-37D0-4338-ACBC-336AE3C05FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25A712B6-879A-418F-B6C6-EB460BAA5521}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9DE8B298-4CA4-4F6E-BABB-8895AAA8D650}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
   <si>
     <t>Anízio</t>
   </si>
@@ -136,6 +136,57 @@
   </si>
   <si>
     <t>Pontuação</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Esclarecimento de dúvidas sobre requisitos</t>
+  </si>
+  <si>
+    <t>Alinhamento de ideias e criatividade</t>
+  </si>
+  <si>
+    <t>Entra das Sessões do site institucional+dashboard                          Feedbacks da sprint semanal</t>
+  </si>
+  <si>
+    <t>Protótipo Site Institucional</t>
+  </si>
+  <si>
+    <t>Sessão Cabeçalho</t>
+  </si>
+  <si>
+    <t>Sessão Início</t>
+  </si>
+  <si>
+    <t>Sessão Sobre Nós</t>
+  </si>
+  <si>
+    <t>Sessão Calculadora</t>
+  </si>
+  <si>
+    <t>Sessão Fale Conosco</t>
+  </si>
+  <si>
+    <t>Sessão Login</t>
+  </si>
+  <si>
+    <t>Sessão Recuperação de Senha</t>
+  </si>
+  <si>
+    <t>Sessão Dashboard</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -172,7 +223,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,8 +260,14 @@
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -261,11 +318,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -281,9 +373,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -299,6 +388,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -660,7 +771,7 @@
   <dimension ref="B4:F10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:F10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -797,10 +908,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1648B562-97D0-4A45-9310-DDFCBB0F5669}">
-  <dimension ref="B1:J16"/>
+  <dimension ref="B1:L17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -813,10 +924,11 @@
     <col min="7" max="7" width="11.36328125" customWidth="1"/>
     <col min="8" max="8" width="11.26953125" customWidth="1"/>
     <col min="9" max="9" width="32.1796875" customWidth="1"/>
+    <col min="11" max="11" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
@@ -824,32 +936,32 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="2:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
@@ -874,146 +986,215 @@
       <c r="I7" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="8">
+      <c r="K7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="2:12" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="7">
         <v>45015</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="10" t="s">
+      <c r="C8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="8">
-        <v>45016</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="8">
+      <c r="K8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="7">
         <v>45019</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="8">
+      <c r="C9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="7">
         <v>45020</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="8">
+      <c r="C10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="7">
         <v>45021</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="2:10" ht="73" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="8" t="s">
+      <c r="C11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="73" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I12" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>13</v>
-      </c>
-      <c r="J15">
-        <f>SUM(C15:H16)</f>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C16">
-        <v>13</v>
-      </c>
-      <c r="D16">
-        <v>8</v>
-      </c>
-      <c r="E16">
-        <v>13</v>
-      </c>
-      <c r="F16">
-        <v>8</v>
-      </c>
-      <c r="G16">
-        <v>8</v>
-      </c>
-      <c r="H16">
-        <v>5</v>
+      <c r="K12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="K13" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="K14" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="K15" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="18"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="K16" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I17" s="19"/>
+      <c r="K17" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17" s="19">
+        <f>SUM(L8:L16)</f>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K7:L7"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/documentos/Funções.xlsx
+++ b/documentos/Funções.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/bruno_lima_sptech_school/Documents/git/sprint2/documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="304" documentId="8_{8659409E-37D0-4338-ACBC-336AE3C05FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25A712B6-879A-418F-B6C6-EB460BAA5521}"/>
+  <xr:revisionPtr revIDLastSave="328" documentId="8_{8659409E-37D0-4338-ACBC-336AE3C05FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04FB3206-9BC5-4986-9708-90F300E17541}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9DE8B298-4CA4-4F6E-BABB-8895AAA8D650}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{9DE8B298-4CA4-4F6E-BABB-8895AAA8D650}"/>
   </bookViews>
   <sheets>
     <sheet name="Funções" sheetId="1" r:id="rId1"/>
     <sheet name="S 2.2" sheetId="2" r:id="rId2"/>
+    <sheet name="S 2.3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="53">
   <si>
     <t>Anízio</t>
   </si>
@@ -153,9 +154,6 @@
     <t>Protótipo Site Institucional</t>
   </si>
   <si>
-    <t>Sessão Cabeçalho</t>
-  </si>
-  <si>
     <t>Sessão Início</t>
   </si>
   <si>
@@ -187,6 +185,18 @@
   </si>
   <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Cabeçalho</t>
+  </si>
+  <si>
+    <t>Anizio</t>
+  </si>
+  <si>
+    <t>06/04 - 12/04</t>
   </si>
 </sst>
 </file>
@@ -223,7 +233,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,6 +273,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
@@ -357,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -391,25 +407,28 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -908,10 +927,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1648B562-97D0-4A45-9310-DDFCBB0F5669}">
-  <dimension ref="B1:L17"/>
+  <dimension ref="B1:L18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView showGridLines="0" topLeftCell="G8" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -986,10 +1005,10 @@
       <c r="I7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="15"/>
+      <c r="L7" s="19"/>
     </row>
     <row r="8" spans="2:12" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="7">
@@ -1019,7 +1038,7 @@
       <c r="K8" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="15">
         <v>13</v>
       </c>
     </row>
@@ -1048,10 +1067,10 @@
       <c r="I9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="18">
+      <c r="K9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="16">
         <v>3</v>
       </c>
     </row>
@@ -1081,9 +1100,9 @@
         <v>35</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="17">
+        <v>38</v>
+      </c>
+      <c r="L10" s="15">
         <v>13</v>
       </c>
     </row>
@@ -1112,11 +1131,11 @@
       <c r="I11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="18" t="s">
-        <v>47</v>
+      <c r="K11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="73" customHeight="1" x14ac:dyDescent="0.35">
@@ -1145,51 +1164,52 @@
         <v>7</v>
       </c>
       <c r="K12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="K13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="L13" s="16" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="K13" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="L13" s="18" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="K14" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="K15" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="17" t="s">
+      <c r="L15" s="16" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="K15" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="L15" s="18"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="K16" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I17" s="17"/>
+      <c r="K17" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="L16" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="9:12" x14ac:dyDescent="0.35">
-      <c r="I17" s="19"/>
-      <c r="K17" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="L17" s="19">
-        <f>SUM(L8:L16)</f>
-        <v>29</v>
-      </c>
+    </row>
+    <row r="18" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="L18" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1198,4 +1218,204 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AEAFD43-712F-415B-8F5B-377589F56F30}">
+  <dimension ref="B1:L18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.08984375" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" customWidth="1"/>
+    <col min="5" max="5" width="10.90625" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" customWidth="1"/>
+    <col min="7" max="7" width="11.36328125" customWidth="1"/>
+    <col min="8" max="8" width="11.26953125" customWidth="1"/>
+    <col min="9" max="9" width="32.1796875" customWidth="1"/>
+    <col min="11" max="11" width="17.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" spans="2:12" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="7">
+        <v>45022</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="7">
+        <v>45026</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="9"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="16"/>
+    </row>
+    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="7">
+        <v>45027</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="9"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="7">
+        <v>45028</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="9"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="16"/>
+    </row>
+    <row r="12" spans="2:12" ht="73" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="K13" s="14"/>
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="K14" s="13"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="K15" s="14"/>
+      <c r="L15" s="16"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="K16" s="13"/>
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I17" s="17"/>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="L18" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K7:L7"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/documentos/Funções.xlsx
+++ b/documentos/Funções.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/bruno_lima_sptech_school/Documents/git/sprint2/documentos/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="328" documentId="8_{8659409E-37D0-4338-ACBC-336AE3C05FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04FB3206-9BC5-4986-9708-90F300E17541}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{9DE8B298-4CA4-4F6E-BABB-8895AAA8D650}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="15600" windowHeight="10305" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Funções" sheetId="1" r:id="rId1"/>
     <sheet name="S 2.2" sheetId="2" r:id="rId2"/>
     <sheet name="S 2.3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="55">
   <si>
     <t>Anízio</t>
   </si>
@@ -197,12 +191,18 @@
   </si>
   <si>
     <t>06/04 - 12/04</t>
+  </si>
+  <si>
+    <t>discussão sobre os próximos passos, modelagem do banco deados  e a divisão e tarefas</t>
+  </si>
+  <si>
+    <t>modelagem banco de ados</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -420,13 +420,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -450,7 +450,6 @@
         <sz val="11"/>
         <color theme="0"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -478,13 +477,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{38C5F04F-4724-4315-9CC5-B99ADDC9319D}" name="Tabela1" displayName="Tabela1" ref="B4:F10" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B4:F10" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BAC2766D-EDC6-4DFC-BB10-FF6676589F04}" name="-" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{EAB58659-AB8E-495B-8474-BB181AE5A01E}" name="Início" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{6199CA90-48E5-499A-AAD5-249387D8FFE8}" name="Fim" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{F4C083DE-B829-46FF-B29A-D3B6127EBE28}" name="Master"/>
-    <tableColumn id="5" xr3:uid="{3248C8DF-9D16-44D9-8D20-0EC6F63C209F}" name="PO"/>
+    <tableColumn id="1" name="-" dataDxfId="2"/>
+    <tableColumn id="2" name="Início" dataDxfId="1"/>
+    <tableColumn id="3" name="Fim" dataDxfId="0"/>
+    <tableColumn id="4" name="Master"/>
+    <tableColumn id="5" name="PO"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -779,26 +778,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE64FC0D-F22B-430B-82B2-CEBD5E4FC459}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="8.81640625" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
@@ -815,7 +814,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
@@ -832,7 +831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
@@ -849,7 +848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
@@ -866,7 +865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
@@ -883,7 +882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
@@ -900,7 +899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
@@ -926,28 +925,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1648B562-97D0-4A45-9310-DDFCBB0F5669}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L18"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="G8" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.08984375" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" customWidth="1"/>
-    <col min="7" max="7" width="11.36328125" customWidth="1"/>
-    <col min="8" max="8" width="11.26953125" customWidth="1"/>
-    <col min="9" max="9" width="32.1796875" customWidth="1"/>
-    <col min="11" max="11" width="17.36328125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:12" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:12" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
@@ -955,7 +954,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:12" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="7" t="s">
         <v>20</v>
       </c>
@@ -963,7 +962,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:12" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
@@ -971,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
@@ -979,8 +978,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:12" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
@@ -1005,12 +1004,12 @@
       <c r="I7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="19"/>
-    </row>
-    <row r="8" spans="2:12" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L7" s="20"/>
+    </row>
+    <row r="8" spans="2:12" ht="44.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
         <v>45015</v>
       </c>
@@ -1042,7 +1041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7">
         <v>45019</v>
       </c>
@@ -1074,7 +1073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7">
         <v>45020</v>
       </c>
@@ -1106,7 +1105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7">
         <v>45021</v>
       </c>
@@ -1138,7 +1137,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="73" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" ht="72.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>21</v>
       </c>
@@ -1170,7 +1169,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="K13" s="14" t="s">
         <v>41</v>
       </c>
@@ -1178,7 +1177,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K14" s="13" t="s">
         <v>42</v>
       </c>
@@ -1186,7 +1185,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="K15" s="14" t="s">
         <v>43</v>
       </c>
@@ -1194,7 +1193,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K16" s="13" t="s">
         <v>44</v>
       </c>
@@ -1202,13 +1201,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="9:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="9:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="I17" s="17"/>
       <c r="K17" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="9:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="9:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="L18" s="17"/>
     </row>
   </sheetData>
@@ -1221,28 +1220,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AEAFD43-712F-415B-8F5B-377589F56F30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.08984375" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" customWidth="1"/>
-    <col min="7" max="7" width="11.36328125" customWidth="1"/>
-    <col min="8" max="8" width="11.26953125" customWidth="1"/>
-    <col min="9" max="9" width="32.1796875" customWidth="1"/>
-    <col min="11" max="11" width="17.36328125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:12" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:12" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1250,7 +1249,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:12" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="7" t="s">
         <v>20</v>
       </c>
@@ -1258,7 +1257,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:12" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
@@ -1266,7 +1265,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1274,8 +1273,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:12" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
@@ -1300,12 +1299,12 @@
       <c r="I7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="19"/>
-    </row>
-    <row r="8" spans="2:12" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L7" s="20"/>
+    </row>
+    <row r="8" spans="2:12" ht="44.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
         <v>45022</v>
       </c>
@@ -1327,53 +1326,59 @@
       <c r="H8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="15"/>
-    </row>
-    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="7">
         <v>45026</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="9"/>
       <c r="K9" s="14"/>
       <c r="L9" s="16"/>
     </row>
-    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:12" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="7">
         <v>45027</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="9"/>
       <c r="K10" s="13"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:12" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="7">
         <v>45028</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="9"/>
       <c r="K11" s="14"/>
       <c r="L11" s="16"/>
     </row>
-    <row r="12" spans="2:12" ht="73" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" ht="72.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="7" t="s">
         <v>21</v>
       </c>
@@ -1389,27 +1394,27 @@
       <c r="K12" s="13"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="K13" s="14"/>
       <c r="L13" s="16"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="K14" s="13"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="K15" s="14"/>
       <c r="L15" s="16"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="K16" s="13"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="9:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="9:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="I17" s="17"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="9:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="9:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="L18" s="17"/>
     </row>
   </sheetData>

--- a/documentos/Funções.xlsx
+++ b/documentos/Funções.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/bruno_lima_sptech_school/Documents/git/sprint2/documentos/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_559A4E1E3225FA332FA10BF84C7449355B9F3C61" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D031F92C-77D2-45CA-8758-C0F3A7F04407}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="15600" windowHeight="10305" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Funções" sheetId="1" r:id="rId1"/>
     <sheet name="S 2.2" sheetId="2" r:id="rId2"/>
     <sheet name="S 2.3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="56">
   <si>
     <t>Anízio</t>
   </si>
@@ -197,12 +203,15 @@
   </si>
   <si>
     <t>modelagem banco de ados</t>
+  </si>
+  <si>
+    <t>=SOMA(L8:L16)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -472,18 +481,14 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B4:F10" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="B4:F10" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" name="-" dataDxfId="2"/>
-    <tableColumn id="2" name="Início" dataDxfId="1"/>
-    <tableColumn id="3" name="Fim" dataDxfId="0"/>
-    <tableColumn id="4" name="Master"/>
-    <tableColumn id="5" name="PO"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="-" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Início" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Fim" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Master"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="PO"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -778,26 +783,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:F10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
@@ -814,7 +819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
@@ -831,7 +836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
@@ -848,7 +853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
@@ -865,7 +870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
@@ -882,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
@@ -899,7 +904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
@@ -925,28 +930,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:N18"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G8" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="32.140625" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" customWidth="1"/>
+    <col min="8" max="8" width="11.26953125" customWidth="1"/>
+    <col min="9" max="9" width="32.1796875" customWidth="1"/>
+    <col min="11" max="11" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:12" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
@@ -954,7 +959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:12" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="7" t="s">
         <v>20</v>
       </c>
@@ -962,7 +967,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:12" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
@@ -970,7 +975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
@@ -978,8 +983,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:12" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
@@ -1009,7 +1014,7 @@
       </c>
       <c r="L7" s="20"/>
     </row>
-    <row r="8" spans="2:12" ht="44.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" ht="44.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="7">
         <v>45015</v>
       </c>
@@ -1040,8 +1045,11 @@
       <c r="L8" s="15">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N8" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="7">
         <v>45019</v>
       </c>
@@ -1073,7 +1081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="7">
         <v>45020</v>
       </c>
@@ -1105,7 +1113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="7">
         <v>45021</v>
       </c>
@@ -1137,7 +1145,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="72.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" ht="73" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="7" t="s">
         <v>21</v>
       </c>
@@ -1169,7 +1177,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" ht="29" x14ac:dyDescent="0.35">
       <c r="K13" s="14" t="s">
         <v>41</v>
       </c>
@@ -1177,7 +1185,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
       <c r="K14" s="13" t="s">
         <v>42</v>
       </c>
@@ -1185,7 +1193,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="K15" s="14" t="s">
         <v>43</v>
       </c>
@@ -1193,7 +1201,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
       <c r="K16" s="13" t="s">
         <v>44</v>
       </c>
@@ -1201,13 +1209,16 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="9:12" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I17" s="17"/>
       <c r="K17" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="9:12" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="L17" s="16">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="9:12" x14ac:dyDescent="0.35">
       <c r="L18" s="17"/>
     </row>
   </sheetData>
@@ -1220,28 +1231,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:L18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="32.140625" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" customWidth="1"/>
+    <col min="8" max="8" width="11.26953125" customWidth="1"/>
+    <col min="9" max="9" width="32.1796875" customWidth="1"/>
+    <col min="11" max="11" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:12" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1249,7 +1260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:12" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="7" t="s">
         <v>20</v>
       </c>
@@ -1257,7 +1268,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="2:12" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
@@ -1265,7 +1276,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1273,8 +1284,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:12" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
@@ -1304,7 +1315,7 @@
       </c>
       <c r="L7" s="20"/>
     </row>
-    <row r="8" spans="2:12" ht="44.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" ht="44.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="7">
         <v>45022</v>
       </c>
@@ -1336,7 +1347,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="2:12" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="7">
         <v>45026</v>
       </c>
@@ -1350,7 +1361,7 @@
       <c r="K9" s="14"/>
       <c r="L9" s="16"/>
     </row>
-    <row r="10" spans="2:12" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="7">
         <v>45027</v>
       </c>
@@ -1364,7 +1375,7 @@
       <c r="K10" s="13"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="2:12" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="7">
         <v>45028</v>
       </c>
@@ -1378,7 +1389,7 @@
       <c r="K11" s="14"/>
       <c r="L11" s="16"/>
     </row>
-    <row r="12" spans="2:12" ht="72.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" ht="73" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="7" t="s">
         <v>21</v>
       </c>
@@ -1394,27 +1405,27 @@
       <c r="K12" s="13"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="2:12" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="K13" s="14"/>
       <c r="L13" s="16"/>
     </row>
-    <row r="14" spans="2:12" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="K14" s="13"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="2:12" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="K15" s="14"/>
       <c r="L15" s="16"/>
     </row>
-    <row r="16" spans="2:12" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="K16" s="13"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="9:12" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I17" s="17"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="9:12" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="9:12" x14ac:dyDescent="0.35">
       <c r="L18" s="17"/>
     </row>
   </sheetData>

--- a/documentos/Funções.xlsx
+++ b/documentos/Funções.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/bruno_lima_sptech_school/Documents/git/sprint2/documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_559A4E1E3225FA332FA10BF84C7449355B9F3C61" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D031F92C-77D2-45CA-8758-C0F3A7F04407}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F14CBCF-93F8-4FA6-B2D2-4808BDD5BF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Funções" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="72">
   <si>
     <t>Anízio</t>
   </si>
@@ -202,17 +202,65 @@
     <t>discussão sobre os próximos passos, modelagem do banco deados  e a divisão e tarefas</t>
   </si>
   <si>
-    <t>modelagem banco de ados</t>
-  </si>
-  <si>
-    <t>=SOMA(L8:L16)</t>
+    <t>p</t>
+  </si>
+  <si>
+    <t>realização do diagrama de soluções</t>
+  </si>
+  <si>
+    <t>rodapé</t>
+  </si>
+  <si>
+    <t>script ciração banco</t>
+  </si>
+  <si>
+    <t>validação e lógica de loguin</t>
+  </si>
+  <si>
+    <t>validação e lógica cadastro</t>
+  </si>
+  <si>
+    <t>código calculadora</t>
+  </si>
+  <si>
+    <t>sessão cadastro</t>
+  </si>
+  <si>
+    <t>especialização analistcs</t>
+  </si>
+  <si>
+    <t>validação e lógica recuperação de senha</t>
+  </si>
+  <si>
+    <t>rodapé,modelagem do banco e script banco de dados</t>
+  </si>
+  <si>
+    <t>modelagem banco de dado,rodapé,validação e lógica do loguin e recuperação de senha e cadastro</t>
+  </si>
+  <si>
+    <t>rodapé,modelagem de dados e código calculadora</t>
+  </si>
+  <si>
+    <t>diagrama de colução,modelagem banco de dados,rodapé</t>
+  </si>
+  <si>
+    <t>sessão cadastro,modelagem banco de dados e rodapé</t>
+  </si>
+  <si>
+    <t>planejamanto e conclusão da sprint 2.2</t>
+  </si>
+  <si>
+    <t>distruibuição de tarefaz e planjemento da sprint</t>
+  </si>
+  <si>
+    <t>modelagem banco de dados</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,8 +289,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,14 +341,8 @@
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -378,11 +428,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -429,14 +492,31 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -797,12 +877,12 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="8.81640625" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
@@ -819,7 +899,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
@@ -836,7 +916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
@@ -853,7 +933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
@@ -870,7 +950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
@@ -887,7 +967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
@@ -904,7 +984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
@@ -933,25 +1013,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:N18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView showGridLines="0" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.1796875" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" customWidth="1"/>
-    <col min="8" max="8" width="11.26953125" customWidth="1"/>
-    <col min="9" max="9" width="32.1796875" customWidth="1"/>
-    <col min="11" max="11" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:14" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:14" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
@@ -959,7 +1039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:14" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="7" t="s">
         <v>20</v>
       </c>
@@ -967,7 +1047,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:14" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
@@ -975,7 +1055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
@@ -983,8 +1063,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="2:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:14" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
@@ -1009,12 +1089,12 @@
       <c r="I7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="20"/>
-    </row>
-    <row r="8" spans="2:14" ht="44.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" spans="2:14" ht="44.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
         <v>45015</v>
       </c>
@@ -1042,14 +1122,12 @@
       <c r="K8" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="15">
-        <v>13</v>
-      </c>
-      <c r="N8" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" s="17"/>
+    </row>
+    <row r="9" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7">
         <v>45019</v>
       </c>
@@ -1081,7 +1159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7">
         <v>45020</v>
       </c>
@@ -1113,7 +1191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7">
         <v>45021</v>
       </c>
@@ -1145,7 +1223,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="73" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:14" ht="72.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>21</v>
       </c>
@@ -1177,7 +1255,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="K13" s="14" t="s">
         <v>41</v>
       </c>
@@ -1185,7 +1263,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K14" s="13" t="s">
         <v>42</v>
       </c>
@@ -1193,7 +1271,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:14" ht="45" x14ac:dyDescent="0.25">
       <c r="K15" s="14" t="s">
         <v>43</v>
       </c>
@@ -1201,7 +1279,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K16" s="13" t="s">
         <v>44</v>
       </c>
@@ -1209,7 +1287,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="9:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="9:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="I17" s="17"/>
       <c r="K17" s="14" t="s">
         <v>45</v>
@@ -1218,7 +1296,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="9:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="9:12" x14ac:dyDescent="0.25">
       <c r="L18" s="17"/>
     </row>
   </sheetData>
@@ -1232,27 +1310,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:L18"/>
+  <dimension ref="B1:N18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.1796875" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" customWidth="1"/>
-    <col min="8" max="8" width="11.26953125" customWidth="1"/>
-    <col min="9" max="9" width="32.1796875" customWidth="1"/>
-    <col min="11" max="11" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:14" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:14" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1260,7 +1338,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:14" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="7" t="s">
         <v>20</v>
       </c>
@@ -1268,7 +1346,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:14" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
@@ -1276,7 +1354,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1284,8 +1362,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:14" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
@@ -1310,12 +1388,12 @@
       <c r="I7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="20"/>
-    </row>
-    <row r="8" spans="2:12" ht="44.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" spans="2:14" ht="44.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
         <v>45022</v>
       </c>
@@ -1341,97 +1419,196 @@
         <v>53</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>71</v>
+      </c>
+      <c r="L8" s="21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7">
         <v>45026</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="9"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="16"/>
-    </row>
-    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7">
         <v>45027</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="9"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="15"/>
-    </row>
-    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7">
         <v>45028</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="9"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="16"/>
-    </row>
-    <row r="12" spans="2:12" ht="73" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" s="22">
+        <v>21</v>
+      </c>
+      <c r="N11" s="24"/>
+    </row>
+    <row r="12" spans="2:14" ht="72.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="C12" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="I12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="15"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="K13" s="14"/>
-      <c r="L13" s="16"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="K14" s="13"/>
-      <c r="L14" s="15"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="K15" s="14"/>
-      <c r="L15" s="16"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="K16" s="13"/>
-      <c r="L16" s="15"/>
-    </row>
-    <row r="17" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="K12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="K13" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" s="22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="K14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" s="21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K15" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" s="22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="K16" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="L16" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="9:12" ht="45" x14ac:dyDescent="0.25">
       <c r="I17" s="17"/>
-      <c r="K17" s="14"/>
-    </row>
-    <row r="18" spans="9:12" x14ac:dyDescent="0.35">
-      <c r="L18" s="17"/>
+      <c r="K17" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="K18" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18" s="20">
+        <f>SUM(L8:L17)</f>
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="K7:L7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentos/Funções.xlsx
+++ b/documentos/Funções.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/henrique_coelho_sptech_school/Documents/SPTECH/Projeto_VagaFácil/sprint2/documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F14CBCF-93F8-4FA6-B2D2-4808BDD5BF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{5F14CBCF-93F8-4FA6-B2D2-4808BDD5BF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A6AF6E1-3D20-4815-8FC1-091C1CD05C2F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Funções" sheetId="1" r:id="rId1"/>
     <sheet name="S 2.2" sheetId="2" r:id="rId2"/>
     <sheet name="S 2.3" sheetId="3" r:id="rId3"/>
+    <sheet name="S 2.4" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +26,8 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="83">
   <si>
     <t>Anízio</t>
   </si>
@@ -254,6 +251,39 @@
   </si>
   <si>
     <t>modelagem banco de dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henrique </t>
+  </si>
+  <si>
+    <t>14/04 - 18/04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definição de ajustes no site; protótipo da tela de dashboard para o cliente; Criação da planilha de riscos do projeto; Ajuste na modelagem de Dados </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site Institucional 100% pronto(Sessão da calculadora com o CSS final e padronização dos itens); Dashboard do cliente; Modelagem final dos dados; script final dos dados; </t>
+  </si>
+  <si>
+    <t>Sessão da calculador com o CSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Padronização do site </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dashboard do cliente </t>
+  </si>
+  <si>
+    <t>Banco de Dados</t>
+  </si>
+  <si>
+    <t>Dashboard do cliente</t>
+  </si>
+  <si>
+    <t>Reunião diária, acompanhamento de evolução e alinhamento de idéias</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -342,7 +372,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -441,11 +471,121 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -492,31 +632,71 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -877,12 +1057,12 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
@@ -899,7 +1079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
@@ -916,7 +1096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
@@ -933,7 +1113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
@@ -950,7 +1130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
@@ -967,7 +1147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
@@ -984,7 +1164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1013,25 +1193,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:N18"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="32.140625" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="9" max="9" width="32.109375" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:14" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1039,7 +1219,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:14" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
         <v>20</v>
       </c>
@@ -1047,7 +1227,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:14" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
@@ -1055,7 +1235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1063,8 +1243,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:14" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="2:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
@@ -1089,12 +1269,12 @@
       <c r="I7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="19"/>
-    </row>
-    <row r="8" spans="2:14" ht="44.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="28"/>
+    </row>
+    <row r="8" spans="2:14" ht="44.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="7">
         <v>45015</v>
       </c>
@@ -1127,7 +1307,7 @@
       </c>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="7">
         <v>45019</v>
       </c>
@@ -1159,7 +1339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="7">
         <v>45020</v>
       </c>
@@ -1191,7 +1371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="7">
         <v>45021</v>
       </c>
@@ -1223,7 +1403,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="72.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" ht="72.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>21</v>
       </c>
@@ -1255,7 +1435,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="K13" s="14" t="s">
         <v>41</v>
       </c>
@@ -1263,7 +1443,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="K14" s="13" t="s">
         <v>42</v>
       </c>
@@ -1271,7 +1451,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="K15" s="14" t="s">
         <v>43</v>
       </c>
@@ -1279,7 +1459,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="K16" s="13" t="s">
         <v>44</v>
       </c>
@@ -1287,7 +1467,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="9:12" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I17" s="17"/>
       <c r="K17" s="14" t="s">
         <v>45</v>
@@ -1296,7 +1476,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:12" x14ac:dyDescent="0.3">
       <c r="L18" s="17"/>
     </row>
   </sheetData>
@@ -1312,25 +1492,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:N18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="32.140625" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="9" max="9" width="32.109375" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:14" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1338,7 +1518,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:14" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
         <v>20</v>
       </c>
@@ -1346,7 +1526,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="2:14" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
@@ -1354,7 +1534,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1362,8 +1542,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:14" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="2:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
@@ -1388,12 +1568,12 @@
       <c r="I7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="19"/>
-    </row>
-    <row r="8" spans="2:14" ht="44.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="28"/>
+    </row>
+    <row r="8" spans="2:14" ht="44.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="7">
         <v>45022</v>
       </c>
@@ -1421,11 +1601,11 @@
       <c r="K8" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="19">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="7">
         <v>45026</v>
       </c>
@@ -1453,11 +1633,11 @@
       <c r="K9" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L9" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="7">
         <v>45027</v>
       </c>
@@ -1485,11 +1665,11 @@
       <c r="K10" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="7">
         <v>45028</v>
       </c>
@@ -1517,12 +1697,12 @@
       <c r="K11" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="20">
         <v>21</v>
       </c>
-      <c r="N11" s="24"/>
-    </row>
-    <row r="12" spans="2:14" ht="72.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N11" s="22"/>
+    </row>
+    <row r="12" spans="2:14" ht="72.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>21</v>
       </c>
@@ -1550,59 +1730,307 @@
       <c r="K12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="19">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="K13" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="L13" s="22">
+      <c r="L13" s="20">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="K14" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="L14" s="21">
+      <c r="L14" s="19">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="K15" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="20">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="K16" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="L16" s="23">
+      <c r="L16" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="9:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="I17" s="17"/>
-      <c r="K17" s="25" t="s">
+      <c r="K17" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="L17" s="26">
+      <c r="L17" s="24">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="K18" s="27" t="s">
+    <row r="18" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="K18" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="L18" s="20">
+      <c r="L18" s="18">
         <f>SUM(L8:L17)</f>
         <v>102</v>
       </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K7:L7"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A4B64D-CE71-4FE2-A829-9C054B1980D2}">
+  <dimension ref="B1:P18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="9" max="9" width="32.109375" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="31"/>
+    </row>
+    <row r="8" spans="2:16" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="7">
+        <v>45029</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" s="32"/>
+      <c r="L8" s="33"/>
+    </row>
+    <row r="9" spans="2:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="7">
+        <v>45030</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="34"/>
+      <c r="L9" s="35"/>
+    </row>
+    <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="7">
+        <v>45033</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="37"/>
+    </row>
+    <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="7">
+        <v>45034</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="9"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="35"/>
+      <c r="N11" s="22"/>
+    </row>
+    <row r="12" spans="2:16" ht="72" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="36"/>
+      <c r="L12" s="37"/>
+      <c r="P12" s="22"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C13" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" s="34"/>
+      <c r="L13" s="35"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K14" s="36"/>
+      <c r="L14" s="37"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K15" s="34"/>
+      <c r="L15" s="35"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K16" s="36"/>
+      <c r="L16" s="38"/>
+    </row>
+    <row r="17" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I17" s="17"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="40"/>
+    </row>
+    <row r="18" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="K18" s="25"/>
+      <c r="L18" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
